--- a/HTML pages/Database/dbschema.xlsx
+++ b/HTML pages/Database/dbschema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HelperLand\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HelperLand\HTML pages\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BACA8-F2E5-4D7D-B8C6-B42B09E993DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FDC65-E666-4D16-A41F-FC2F7A858B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,6 +456,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -472,33 +499,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,7 +784,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,31 +795,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -827,13 +827,13 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="1"/>
@@ -841,13 +841,13 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1"/>
@@ -855,13 +855,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1"/>
@@ -869,13 +869,13 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1"/>
@@ -891,31 +891,31 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1"/>
@@ -923,13 +923,13 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1"/>
@@ -937,13 +937,13 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1"/>
@@ -951,13 +951,13 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1"/>
@@ -965,13 +965,13 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1"/>
@@ -979,13 +979,13 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="1"/>
@@ -1001,31 +1001,31 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1"/>
@@ -1033,13 +1033,13 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1"/>
@@ -1047,13 +1047,13 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="1"/>
@@ -1061,13 +1061,13 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1"/>
@@ -1075,13 +1075,13 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1"/>
@@ -1089,13 +1089,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1"/>
@@ -1103,13 +1103,13 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="1"/>
@@ -1117,13 +1117,13 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
@@ -1139,31 +1139,31 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="1"/>
@@ -1171,13 +1171,13 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="1"/>
@@ -1185,13 +1185,13 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="1"/>
@@ -1199,13 +1199,13 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="1"/>
@@ -1213,13 +1213,13 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="1"/>
@@ -1227,13 +1227,13 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="1"/>
@@ -1241,13 +1241,13 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="1"/>
@@ -1255,13 +1255,13 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="1"/>
@@ -1269,13 +1269,13 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="1"/>
@@ -1283,13 +1283,13 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="1"/>
@@ -1305,31 +1305,31 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1"/>
@@ -1337,13 +1337,13 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="1"/>
@@ -1351,13 +1351,13 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="1"/>
@@ -1365,13 +1365,13 @@
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="1"/>
@@ -1379,13 +1379,13 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="1"/>
@@ -1393,13 +1393,13 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="1"/>
@@ -1407,13 +1407,13 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="1"/>
@@ -1421,13 +1421,13 @@
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="1"/>
@@ -1435,13 +1435,13 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D52" s="1"/>
@@ -1449,13 +1449,13 @@
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D53" s="1"/>
@@ -1463,13 +1463,13 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="1"/>
@@ -1477,13 +1477,13 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="1"/>
@@ -1491,13 +1491,13 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D56" s="1"/>
@@ -1513,31 +1513,31 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1"/>
@@ -1545,13 +1545,13 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D61" s="1"/>
@@ -1559,13 +1559,13 @@
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="1"/>
@@ -1573,13 +1573,13 @@
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="1"/>
@@ -1587,13 +1587,13 @@
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="1"/>
@@ -1601,13 +1601,13 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D65" s="1"/>
@@ -1623,31 +1623,31 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1"/>
@@ -1655,13 +1655,13 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="1"/>
@@ -1669,13 +1669,13 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D71" s="2"/>
